--- a/data/trans_orig/APOYO_SOCIAL_DUKE_AFEC_CONT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_AFEC_CONT-Edad-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo social afectivo - escala</t>
+          <t>Apoyo social afectivo - escala (tasa de respuesta: 98,35%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/APOYO_SOCIAL_DUKE_AFEC_CONT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_AFEC_CONT-Edad-trans_orig.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,12</t>
+          <t>18,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,76</t>
+          <t>17,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,95</t>
+          <t>17,82</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,73; 18,47</t>
+          <t>17,56; 18,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,56; 19,24</t>
+          <t>18,56; 19,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,22; 18,18</t>
+          <t>17,01; 18,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,3; 18,5</t>
+          <t>17,21; 18,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,63; 18,21</t>
+          <t>17,43; 18,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -742,37 +742,37 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>17,88</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17,99</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17,93</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17,6</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18,49</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>18,21</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>17,74</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>17,99</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>17,93</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>17,66</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>18,49</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>18,21</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>17,69</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,13; 18,17</t>
+          <t>17,25; 18,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,52; 18,39</t>
+          <t>17,59; 18,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 18,05</t>
+          <t>17,06; 18,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,96; 19,23</t>
+          <t>17,91; 19,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,35; 18,05</t>
+          <t>17,37; 18,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,95; 18,89</t>
+          <t>17,94; 18,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,89</t>
+          <t>17,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,94</t>
+          <t>16,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,92</t>
+          <t>17,02</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,45; 17,29</t>
+          <t>16,65; 17,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,27; 18,0</t>
+          <t>17,27; 17,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,46; 17,34</t>
+          <t>16,57; 17,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,58; 18,06</t>
+          <t>17,6; 18,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,6; 17,22</t>
+          <t>16,74; 17,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,53; 17,96</t>
+          <t>17,53; 17,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,82</t>
+          <t>16,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,9</t>
+          <t>16,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,86</t>
+          <t>16,92</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,49; 17,18</t>
+          <t>16,44; 17,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 19,4</t>
+          <t>17,4; 19,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,6; 17,19</t>
+          <t>16,62; 17,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,37; 17,82</t>
+          <t>17,38; 17,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,6; 17,09</t>
+          <t>16,65; 17,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,99</t>
+          <t>16,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,92</t>
+          <t>16,83</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,95</t>
+          <t>16,88</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,6; 17,29</t>
+          <t>16,55; 17,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,74; 17,44</t>
+          <t>16,73; 17,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,64; 17,17</t>
+          <t>16,49; 17,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,68; 17,24</t>
+          <t>16,64; 17,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,72; 17,16</t>
+          <t>16,63; 17,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,8; 17,25</t>
+          <t>16,81; 17,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>17,61</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,24</t>
+          <t>17,32</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,39</t>
+          <t>17,45</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,22; 17,86</t>
+          <t>17,23; 17,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,68; 17,4</t>
+          <t>16,69; 17,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,52</t>
+          <t>16,94; 17,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,41; 17,36</t>
+          <t>15,4; 17,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,16; 17,61</t>
+          <t>17,19; 17,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,65; 17,23</t>
+          <t>15,56; 17,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,34</t>
+          <t>17,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,32</t>
+          <t>17,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,33</t>
+          <t>17,51</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,92; 17,69</t>
+          <t>17,1; 17,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,92; 16,83</t>
+          <t>15,91; 16,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,01; 17,62</t>
+          <t>17,22; 17,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,71; 16,46</t>
+          <t>15,73; 16,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,08; 17,56</t>
+          <t>17,27; 17,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,92; 16,5</t>
+          <t>15,94; 16,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,23</t>
+          <t>17,32</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,16</t>
+          <t>17,2</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>17,19</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,09; 17,39</t>
+          <t>17,15; 17,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,5; 18,5</t>
+          <t>17,52; 18,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,03; 17,29</t>
+          <t>17,06; 17,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,68; 17,58</t>
+          <t>16,63; 17,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,1; 17,29</t>
+          <t>17,14; 17,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,2; 17,96</t>
+          <t>17,2; 17,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">

--- a/data/trans_orig/APOYO_SOCIAL_DUKE_AFEC_CONT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_AFEC_CONT-Edad-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>18,83</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18,16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>18,04</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>18,92</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>18,16</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>17,82</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18,33</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>17,6</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>17,96</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>18,33</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>18,35</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18,25</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>17,82</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>18,49</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>18,25</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>18,47; 19,15</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17,86; 18,5</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>17,56; 18,44</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>18,56; 19,23</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>17,86; 18,5</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>17,08; 18,3</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17,99; 18,65</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>17,01; 18,09</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>17,21; 18,45</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>17,99; 18,65</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>17,96; 18,65</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18,04; 18,48</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>17,43; 18,15</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>18,12; 18,8</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>18,04; 18,48</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>17,83</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17,93</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>17,88</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>17,99</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>17,93</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>17,87</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18,21</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>17,6</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>18,49</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>18,21</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>17,85</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18,08</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>17,74</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>18,28</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>18,08</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>17,41; 18,25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17,5; 18,24</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>17,25; 18,31</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>17,59; 18,41</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>17,5; 18,24</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>17,47; 18,19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17,89; 18,46</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>17,06; 18,05</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>17,91; 19,21</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>17,89; 18,46</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>17,56; 18,13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17,84; 18,3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>17,37; 18,08</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>17,94; 18,9</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>17,84; 18,3</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>17,57</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18,0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>17,08</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>17,66</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>18,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>17,79</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18,14</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>16,96</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>17,84</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>18,14</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>17,68</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18,07</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>17,02</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>17,75</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>18,07</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>17,19; 17,87</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17,74; 18,26</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>16,65; 17,46</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>17,27; 17,99</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>17,74; 18,26</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>17,53; 18,02</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17,85; 18,37</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>16,57; 17,35</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>17,6; 18,07</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>17,85; 18,37</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>17,45; 17,87</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17,89; 18,27</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>16,74; 17,3</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>17,53; 17,94</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>17,89; 18,27</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>17,47</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17,89</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>16,88</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>18,47</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>17,89</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>17,58</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18,11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>16,95</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>17,61</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>18,11</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>17,53</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18,0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>16,92</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>18,14</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>18,0</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>17,13; 17,76</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17,59; 18,16</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>16,44; 17,23</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>17,4; 19,49</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>17,59; 18,16</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>17,32; 17,79</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17,84; 18,34</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>16,62; 17,28</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>17,38; 17,83</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>17,84; 18,34</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>17,33; 17,7</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17,81; 18,18</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>16,65; 17,15</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>17,5; 19,16</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>17,81; 18,18</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>17,02</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17,89</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>16,94</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>17,09</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16,92</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>17,89</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>16,83</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>16,97</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>17,89</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>16,88</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>17,04</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>17,89</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>16,67; 17,32</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17,6; 18,14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>16,55; 17,28</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>16,73; 17,41</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>17,6; 18,14</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>16,6; 17,19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17,58; 18,17</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>16,49; 17,16</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>16,64; 17,24</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>17,58; 18,17</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>16,75; 17,18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17,68; 18,08</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>16,63; 17,12</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>16,81; 17,25</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>17,68; 18,08</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>17,03</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17,79</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>17,61</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>17,06</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>17,79</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>17,18</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18,04</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>17,32</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>16,23</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>18,04</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>17,11</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>17,92</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>17,45</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>16,49</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>17,92</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>16,66; 17,35</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17,47; 18,03</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>17,23; 17,92</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>16,69; 17,38</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17,47; 18,03</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>16,85; 17,47</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17,78; 18,29</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>16,94; 17,62</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>15,4; 17,34</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>17,78; 18,29</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>16,88; 17,33</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17,74; 18,09</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>17,19; 17,67</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>15,56; 17,23</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>17,74; 18,09</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>16,36</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>18,04</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>17,49</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>16,4</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>18,04</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>16,05</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>17,79</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>17,52</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>16,11</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>17,79</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>16,17</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>17,89</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>17,51</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>16,22</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>17,89</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>15,84; 16,8</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17,78; 18,3</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>17,1; 17,82</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>15,91; 16,85</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>17,78; 18,3</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>15,67; 16,43</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17,47; 18,04</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>17,22; 17,8</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>15,73; 16,47</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>17,47; 18,04</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>15,87; 16,48</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17,69; 18,07</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>17,27; 17,72</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>15,94; 16,53</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>17,69; 18,07</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>17,47</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17,95</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>17,32</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>17,84</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>17,95</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>17,35</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>18,07</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>17,2</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>17,27</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>18,07</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>17,41</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18,01</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>17,25</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>17,55</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>18,01</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>17,33; 17,62</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>17,84; 18,05</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>17,15; 17,47</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>17,52; 18,58</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>17,84; 18,05</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>17,21; 17,46</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>17,97; 18,17</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>17,06; 17,35</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>16,63; 17,58</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>17,97; 18,17</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>17,31; 17,5</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>17,92; 18,08</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>17,14; 17,36</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>17,2; 17,94</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>17,92; 18,08</t>
         </is>
       </c>
     </row>
